--- a/Admin/TeacherData/LNHS-Teachers.xlsx
+++ b/Admin/TeacherData/LNHS-Teachers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DocMaP\Admin\TeacherData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amora\Desktop\IT\DocMaP\Admin\TeacherData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C625CF-37DC-4C21-B52E-7651FC44E413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357DC454-C614-4E6D-B1B1-39E69E6DB9C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{880E497C-C6FD-4B66-B71E-1867D9E57428}"/>
   </bookViews>
@@ -23,12 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="151">
   <si>
     <t>Firstname</t>
   </si>
@@ -477,13 +472,25 @@
   </si>
   <si>
     <t>21-77830@g.batstate-u.edu.ph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juscel </t>
+  </si>
+  <si>
+    <t>Jumawid</t>
+  </si>
+  <si>
+    <t>09569634405</t>
+  </si>
+  <si>
+    <t>seanaamorante15@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,7 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -554,6 +561,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -891,24 +899,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B3BCFB-25E1-4615-A287-0AEB23A92748}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="69" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="69" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.8984375" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="21.3984375" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" customWidth="1"/>
+    <col min="8" max="8" width="18.296875" customWidth="1"/>
+    <col min="9" max="9" width="19.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -966,7 +974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="27.6">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -995,7 +1003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="27.6">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1024,7 +1032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="27.6">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1053,7 +1061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="27.6">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1082,7 +1090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1111,7 +1119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="27.6">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="27.6">
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
@@ -1169,7 +1177,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="27.6">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -1198,7 +1206,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="27.6">
       <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
@@ -1227,7 +1235,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="27.6">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -1256,7 +1264,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="27.6">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -1285,7 +1293,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="27.6">
       <c r="A14" s="2" t="s">
         <v>74</v>
       </c>
@@ -1314,7 +1322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="27.6">
       <c r="A15" s="2" t="s">
         <v>79</v>
       </c>
@@ -1343,7 +1351,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="27.6">
       <c r="A16" s="2" t="s">
         <v>84</v>
       </c>
@@ -1372,7 +1380,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="27.6">
       <c r="A17" s="2" t="s">
         <v>89</v>
       </c>
@@ -1401,7 +1409,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="27.6">
       <c r="A18" s="2" t="s">
         <v>94</v>
       </c>
@@ -1430,7 +1438,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="27.6">
       <c r="A19" s="2" t="s">
         <v>99</v>
       </c>
@@ -1459,7 +1467,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="27.6">
       <c r="A20" s="2" t="s">
         <v>104</v>
       </c>
@@ -1488,7 +1496,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="27.6">
       <c r="A21" s="2" t="s">
         <v>109</v>
       </c>
@@ -1517,7 +1525,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="27.6">
       <c r="A22" s="2" t="s">
         <v>134</v>
       </c>
@@ -1546,7 +1554,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="27.6">
       <c r="A23" s="2" t="s">
         <v>141</v>
       </c>
@@ -1575,7 +1583,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="27.6">
       <c r="A24" s="2" t="s">
         <v>142</v>
       </c>
@@ -1604,8 +1612,34 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="7">
+        <v>37732</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1613,6 +1647,7 @@
     <hyperlink ref="F2" r:id="rId2" xr:uid="{49B4A3DF-CC9C-4BF3-8F1E-6A4E73E43835}"/>
     <hyperlink ref="F23" r:id="rId3" xr:uid="{B97F0638-2170-4C25-AD34-6C30B3FFE580}"/>
     <hyperlink ref="F24" r:id="rId4" xr:uid="{6AC8830F-9D4E-475D-945A-663316A3C81C}"/>
+    <hyperlink ref="F25" r:id="rId5" xr:uid="{E2D4CA00-9F62-477B-BF25-D01695286CFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
